--- a/processedFiles/dataTotalsmodel5.xlsx
+++ b/processedFiles/dataTotalsmodel5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>File</t>
   </si>
@@ -172,6 +172,54 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>Y Intercept</t>
+  </si>
+  <si>
+    <t>Ereg</t>
+  </si>
+  <si>
+    <t>Ereg^2</t>
+  </si>
+  <si>
+    <t>Ep1</t>
+  </si>
+  <si>
+    <t>Ep1^2</t>
+  </si>
+  <si>
+    <t>Ep2</t>
+  </si>
+  <si>
+    <t>Ep2^2</t>
+  </si>
+  <si>
+    <t>Enp</t>
+  </si>
+  <si>
+    <t>Enp^2</t>
+  </si>
+  <si>
+    <t>Epsi</t>
+  </si>
+  <si>
+    <t>Epsi^2</t>
+  </si>
+  <si>
+    <t>Ephi</t>
+  </si>
+  <si>
+    <t>Ephi^2</t>
+  </si>
+  <si>
+    <t>Esa</t>
+  </si>
+  <si>
+    <t>Esa^2</t>
+  </si>
+  <si>
+    <t>Best Zscore</t>
   </si>
 </sst>
 </file>
@@ -220,17 +268,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -568,7 +656,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +708,53 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -673,8 +806,53 @@
       <c r="Q2">
         <v>0.62335272727299995</v>
       </c>
+      <c r="R2">
+        <v>3.3515625</v>
+      </c>
+      <c r="S2">
+        <v>2.7880859400000002</v>
+      </c>
+      <c r="T2">
+        <v>0.82128906000000002</v>
+      </c>
+      <c r="U2">
+        <v>3.015625</v>
+      </c>
+      <c r="V2">
+        <v>3.9580078099999998</v>
+      </c>
+      <c r="W2">
+        <v>0.50976562000000003</v>
+      </c>
+      <c r="X2">
+        <v>0.81347656000000002</v>
+      </c>
+      <c r="Y2">
+        <v>2.3642578099999998</v>
+      </c>
+      <c r="Z2">
+        <v>1.89257812</v>
+      </c>
+      <c r="AA2">
+        <v>2.92578125</v>
+      </c>
+      <c r="AB2">
+        <v>0.87988281000000002</v>
+      </c>
+      <c r="AC2">
+        <v>1.89355469</v>
+      </c>
+      <c r="AD2">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="AE2">
+        <v>0.65527343999999998</v>
+      </c>
+      <c r="AF2">
+        <v>8.6914060000000001E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -726,8 +904,53 @@
       <c r="Q3">
         <v>0.62070727272699999</v>
       </c>
+      <c r="R3">
+        <v>1.91113281</v>
+      </c>
+      <c r="S3">
+        <v>1.9609375</v>
+      </c>
+      <c r="T3">
+        <v>1.02539062</v>
+      </c>
+      <c r="U3">
+        <v>3.8720703099999998</v>
+      </c>
+      <c r="V3">
+        <v>0.24121094000000001</v>
+      </c>
+      <c r="W3">
+        <v>3.4677734400000002</v>
+      </c>
+      <c r="X3">
+        <v>1.30761719</v>
+      </c>
+      <c r="Y3">
+        <v>3.13671875</v>
+      </c>
+      <c r="Z3">
+        <v>1.97265625</v>
+      </c>
+      <c r="AA3">
+        <v>3.40625</v>
+      </c>
+      <c r="AB3">
+        <v>1.15039062</v>
+      </c>
+      <c r="AC3">
+        <v>2.28710938</v>
+      </c>
+      <c r="AD3">
+        <v>7.5195310000000001E-2</v>
+      </c>
+      <c r="AE3">
+        <v>0.63769531000000002</v>
+      </c>
+      <c r="AF3">
+        <v>5.7617189999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -779,8 +1002,53 @@
       <c r="Q4">
         <v>0.62092818181800002</v>
       </c>
+      <c r="R4">
+        <v>3.1376953099999998</v>
+      </c>
+      <c r="S4">
+        <v>0.10644531</v>
+      </c>
+      <c r="T4">
+        <v>1.90429688</v>
+      </c>
+      <c r="U4">
+        <v>3.9755859400000002</v>
+      </c>
+      <c r="V4">
+        <v>1.32324219</v>
+      </c>
+      <c r="W4">
+        <v>2.76171875</v>
+      </c>
+      <c r="X4">
+        <v>0.61621093999999998</v>
+      </c>
+      <c r="Y4">
+        <v>3.99609375</v>
+      </c>
+      <c r="Z4">
+        <v>2.51953125</v>
+      </c>
+      <c r="AA4">
+        <v>2.1591796900000002</v>
+      </c>
+      <c r="AB4">
+        <v>1.86132812</v>
+      </c>
+      <c r="AC4">
+        <v>2.2021484400000002</v>
+      </c>
+      <c r="AD4">
+        <v>0.12890625</v>
+      </c>
+      <c r="AE4">
+        <v>0.86425781000000002</v>
+      </c>
+      <c r="AF4">
+        <v>5.6640620000000003E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -832,8 +1100,53 @@
       <c r="Q5">
         <v>0.61589272727300004</v>
       </c>
+      <c r="R5">
+        <v>0.390625</v>
+      </c>
+      <c r="S5">
+        <v>0.41992188000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.55761718999999998</v>
+      </c>
+      <c r="U5">
+        <v>2.3544921900000002</v>
+      </c>
+      <c r="V5">
+        <v>2.99804688</v>
+      </c>
+      <c r="W5">
+        <v>0.3671875</v>
+      </c>
+      <c r="X5">
+        <v>1.43164062</v>
+      </c>
+      <c r="Y5">
+        <v>2.0712890599999998</v>
+      </c>
+      <c r="Z5">
+        <v>3.75976562</v>
+      </c>
+      <c r="AA5">
+        <v>3.7998046900000002</v>
+      </c>
+      <c r="AB5">
+        <v>0.4921875</v>
+      </c>
+      <c r="AC5">
+        <v>3.1171875</v>
+      </c>
+      <c r="AD5">
+        <v>2.734375E-2</v>
+      </c>
+      <c r="AE5">
+        <v>0.88964843999999998</v>
+      </c>
+      <c r="AF5">
+        <v>0.12695312</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -885,8 +1198,53 @@
       <c r="Q6">
         <v>0.62280727272699998</v>
       </c>
+      <c r="R6">
+        <v>1.27929688</v>
+      </c>
+      <c r="S6">
+        <v>3.81640625</v>
+      </c>
+      <c r="T6">
+        <v>3.39453125</v>
+      </c>
+      <c r="U6">
+        <v>1.22851562</v>
+      </c>
+      <c r="V6">
+        <v>3.8349609400000002</v>
+      </c>
+      <c r="W6">
+        <v>1.9765625</v>
+      </c>
+      <c r="X6">
+        <v>3.6748046900000002</v>
+      </c>
+      <c r="Y6">
+        <v>3.88476562</v>
+      </c>
+      <c r="Z6">
+        <v>3.7568359400000002</v>
+      </c>
+      <c r="AA6">
+        <v>2.5400390599999998</v>
+      </c>
+      <c r="AB6">
+        <v>2.2392578099999998</v>
+      </c>
+      <c r="AC6">
+        <v>2.4765625</v>
+      </c>
+      <c r="AD6">
+        <v>5.9570310000000001E-2</v>
+      </c>
+      <c r="AE6">
+        <v>1.46191406</v>
+      </c>
+      <c r="AF6">
+        <v>0.18847655999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -938,8 +1296,53 @@
       <c r="Q7">
         <v>0.61804818181800003</v>
       </c>
+      <c r="R7">
+        <v>0.70117187999999997</v>
+      </c>
+      <c r="S7">
+        <v>2.12695312</v>
+      </c>
+      <c r="T7">
+        <v>3.1015625</v>
+      </c>
+      <c r="U7">
+        <v>1.42480469</v>
+      </c>
+      <c r="V7">
+        <v>0.89648437999999997</v>
+      </c>
+      <c r="W7">
+        <v>1.56347656</v>
+      </c>
+      <c r="X7">
+        <v>2.8671875</v>
+      </c>
+      <c r="Y7">
+        <v>3.4130859400000002</v>
+      </c>
+      <c r="Z7">
+        <v>3.98242188</v>
+      </c>
+      <c r="AA7">
+        <v>7.2265620000000003E-2</v>
+      </c>
+      <c r="AB7">
+        <v>2.5068359400000002</v>
+      </c>
+      <c r="AC7">
+        <v>2.93945312</v>
+      </c>
+      <c r="AD7">
+        <v>0.14941405999999999</v>
+      </c>
+      <c r="AE7">
+        <v>2.1171875</v>
+      </c>
+      <c r="AF7">
+        <v>0.16503905999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -991,8 +1394,53 @@
       <c r="Q8">
         <v>0.61708545454499997</v>
       </c>
+      <c r="R8">
+        <v>1.21484375</v>
+      </c>
+      <c r="S8">
+        <v>1.4375</v>
+      </c>
+      <c r="T8">
+        <v>3.4990234400000002</v>
+      </c>
+      <c r="U8">
+        <v>1.42675781</v>
+      </c>
+      <c r="V8">
+        <v>3.19726562</v>
+      </c>
+      <c r="W8">
+        <v>2.078125</v>
+      </c>
+      <c r="X8">
+        <v>1.44628906</v>
+      </c>
+      <c r="Y8">
+        <v>0.21386719000000001</v>
+      </c>
+      <c r="Z8">
+        <v>3.7412109400000002</v>
+      </c>
+      <c r="AA8">
+        <v>3.2373046900000002</v>
+      </c>
+      <c r="AB8">
+        <v>1.73242188</v>
+      </c>
+      <c r="AC8">
+        <v>1.94824219</v>
+      </c>
+      <c r="AD8">
+        <v>4.5898439999999999E-2</v>
+      </c>
+      <c r="AE8">
+        <v>0.94824218999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.15722655999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1044,8 +1492,53 @@
       <c r="Q9">
         <v>0.62353727272699999</v>
       </c>
+      <c r="R9">
+        <v>1.21972656</v>
+      </c>
+      <c r="S9">
+        <v>1.09570312</v>
+      </c>
+      <c r="T9">
+        <v>3.0107421900000002</v>
+      </c>
+      <c r="U9">
+        <v>3.8544921900000002</v>
+      </c>
+      <c r="V9">
+        <v>1.33789062</v>
+      </c>
+      <c r="W9">
+        <v>2.31835938</v>
+      </c>
+      <c r="X9">
+        <v>0.81835937999999997</v>
+      </c>
+      <c r="Y9">
+        <v>1.42285156</v>
+      </c>
+      <c r="Z9">
+        <v>2.58984375</v>
+      </c>
+      <c r="AA9">
+        <v>1.46289062</v>
+      </c>
+      <c r="AB9">
+        <v>2.0927734400000002</v>
+      </c>
+      <c r="AC9">
+        <v>1.73242188</v>
+      </c>
+      <c r="AD9">
+        <v>8.203125E-2</v>
+      </c>
+      <c r="AE9">
+        <v>1.04589844</v>
+      </c>
+      <c r="AF9">
+        <v>0.14453125</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1097,8 +1590,53 @@
       <c r="Q10">
         <v>0.61925363636399999</v>
       </c>
+      <c r="R10">
+        <v>1.05664062</v>
+      </c>
+      <c r="S10">
+        <v>2.5380859400000002</v>
+      </c>
+      <c r="T10">
+        <v>2.2294921900000002</v>
+      </c>
+      <c r="U10">
+        <v>1.72167969</v>
+      </c>
+      <c r="V10">
+        <v>3.66992188</v>
+      </c>
+      <c r="W10">
+        <v>0.9140625</v>
+      </c>
+      <c r="X10">
+        <v>1.24511719</v>
+      </c>
+      <c r="Y10">
+        <v>3.69140625</v>
+      </c>
+      <c r="Z10">
+        <v>2.9609375</v>
+      </c>
+      <c r="AA10">
+        <v>3.89648438</v>
+      </c>
+      <c r="AB10">
+        <v>0.6328125</v>
+      </c>
+      <c r="AC10">
+        <v>1.53710938</v>
+      </c>
+      <c r="AD10">
+        <v>0.13378905999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.9296875</v>
+      </c>
+      <c r="AF10">
+        <v>7.8125E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1150,8 +1688,53 @@
       <c r="Q11">
         <v>0.61842454545500003</v>
       </c>
+      <c r="R11">
+        <v>0.49121093999999998</v>
+      </c>
+      <c r="S11">
+        <v>3.91796875</v>
+      </c>
+      <c r="T11">
+        <v>2.07617188</v>
+      </c>
+      <c r="U11">
+        <v>2.4375</v>
+      </c>
+      <c r="V11">
+        <v>2.6455078099999998</v>
+      </c>
+      <c r="W11">
+        <v>1.30957031</v>
+      </c>
+      <c r="X11">
+        <v>0.58984375</v>
+      </c>
+      <c r="Y11">
+        <v>2.54101562</v>
+      </c>
+      <c r="Z11">
+        <v>3.83203125</v>
+      </c>
+      <c r="AA11">
+        <v>0.62011718999999998</v>
+      </c>
+      <c r="AB11">
+        <v>1.26757812</v>
+      </c>
+      <c r="AC11">
+        <v>2.6689453099999998</v>
+      </c>
+      <c r="AD11">
+        <v>8.1054689999999999E-2</v>
+      </c>
+      <c r="AE11">
+        <v>1.94140625</v>
+      </c>
+      <c r="AF11">
+        <v>0.12304688</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1203,8 +1786,53 @@
       <c r="Q12">
         <v>0.61492000000000002</v>
       </c>
+      <c r="R12">
+        <v>2.4013671900000002</v>
+      </c>
+      <c r="S12">
+        <v>0.47753906000000002</v>
+      </c>
+      <c r="T12">
+        <v>3.18164062</v>
+      </c>
+      <c r="U12">
+        <v>3.24414062</v>
+      </c>
+      <c r="V12">
+        <v>1.578125</v>
+      </c>
+      <c r="W12">
+        <v>0.22070312</v>
+      </c>
+      <c r="X12">
+        <v>2.89453125</v>
+      </c>
+      <c r="Y12">
+        <v>3.3134765599999998</v>
+      </c>
+      <c r="Z12">
+        <v>0.98730468999999998</v>
+      </c>
+      <c r="AA12">
+        <v>3.76171875</v>
+      </c>
+      <c r="AB12">
+        <v>2.8837890599999998</v>
+      </c>
+      <c r="AC12">
+        <v>0.99414062000000003</v>
+      </c>
+      <c r="AD12">
+        <v>1.3671880000000001E-2</v>
+      </c>
+      <c r="AE12">
+        <v>0.23730469000000001</v>
+      </c>
+      <c r="AF12">
+        <v>1.7578119999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1256,8 +1884,53 @@
       <c r="Q13">
         <v>0.61519727272699998</v>
       </c>
+      <c r="R13">
+        <v>3.05273438</v>
+      </c>
+      <c r="S13">
+        <v>1.67285156</v>
+      </c>
+      <c r="T13">
+        <v>2.9541015599999998</v>
+      </c>
+      <c r="U13">
+        <v>2.4833984400000002</v>
+      </c>
+      <c r="V13">
+        <v>2.6142578099999998</v>
+      </c>
+      <c r="W13">
+        <v>0.38769531000000002</v>
+      </c>
+      <c r="X13">
+        <v>3.57226562</v>
+      </c>
+      <c r="Y13">
+        <v>0.54199218999999998</v>
+      </c>
+      <c r="Z13">
+        <v>3.3759765599999998</v>
+      </c>
+      <c r="AA13">
+        <v>3.69335938</v>
+      </c>
+      <c r="AB13">
+        <v>0.20507812</v>
+      </c>
+      <c r="AC13">
+        <v>0.5546875</v>
+      </c>
+      <c r="AD13">
+        <v>1.171875E-2</v>
+      </c>
+      <c r="AE13">
+        <v>0.71582031000000002</v>
+      </c>
+      <c r="AF13">
+        <v>0.12792969000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1309,8 +1982,53 @@
       <c r="Q14">
         <v>0.61990454545499996</v>
       </c>
+      <c r="R14">
+        <v>0.296875</v>
+      </c>
+      <c r="S14">
+        <v>3.50585938</v>
+      </c>
+      <c r="T14">
+        <v>2.74804688</v>
+      </c>
+      <c r="U14">
+        <v>0.51367187999999997</v>
+      </c>
+      <c r="V14">
+        <v>8.8867189999999999E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.34960938</v>
+      </c>
+      <c r="X14">
+        <v>3.4755859400000002</v>
+      </c>
+      <c r="Y14">
+        <v>0.22753905999999999</v>
+      </c>
+      <c r="Z14">
+        <v>3.43359375</v>
+      </c>
+      <c r="AA14">
+        <v>3.7958984400000002</v>
+      </c>
+      <c r="AB14">
+        <v>2.57617188</v>
+      </c>
+      <c r="AC14">
+        <v>1.16308594</v>
+      </c>
+      <c r="AD14">
+        <v>0.1796875</v>
+      </c>
+      <c r="AE14">
+        <v>1.09863281</v>
+      </c>
+      <c r="AF14">
+        <v>8.8867189999999999E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1362,8 +2080,53 @@
       <c r="Q15">
         <v>0.61911909090899997</v>
       </c>
+      <c r="R15">
+        <v>1.734375</v>
+      </c>
+      <c r="S15">
+        <v>2.0087890599999998</v>
+      </c>
+      <c r="T15">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="U15">
+        <v>0.8046875</v>
+      </c>
+      <c r="V15">
+        <v>1.99804688</v>
+      </c>
+      <c r="W15">
+        <v>3.3583984400000002</v>
+      </c>
+      <c r="X15">
+        <v>2.8349609400000002</v>
+      </c>
+      <c r="Y15">
+        <v>1.00292969</v>
+      </c>
+      <c r="Z15">
+        <v>3.27929688</v>
+      </c>
+      <c r="AA15">
+        <v>1.33105469</v>
+      </c>
+      <c r="AB15">
+        <v>3.6181640599999998</v>
+      </c>
+      <c r="AC15">
+        <v>2.7705078099999998</v>
+      </c>
+      <c r="AD15">
+        <v>0.12695312</v>
+      </c>
+      <c r="AE15">
+        <v>1.02050781</v>
+      </c>
+      <c r="AF15">
+        <v>8.7890620000000003E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1415,8 +2178,53 @@
       <c r="Q16">
         <v>0.62247727272700004</v>
       </c>
+      <c r="R16">
+        <v>1.8984375</v>
+      </c>
+      <c r="S16">
+        <v>0.29003906000000002</v>
+      </c>
+      <c r="T16">
+        <v>1.83496094</v>
+      </c>
+      <c r="U16">
+        <v>2.4619140599999998</v>
+      </c>
+      <c r="V16">
+        <v>0.31640625</v>
+      </c>
+      <c r="W16">
+        <v>0.10449219</v>
+      </c>
+      <c r="X16">
+        <v>1.91308594</v>
+      </c>
+      <c r="Y16">
+        <v>3.28710938</v>
+      </c>
+      <c r="Z16">
+        <v>1.34667969</v>
+      </c>
+      <c r="AA16">
+        <v>1.22460938</v>
+      </c>
+      <c r="AB16">
+        <v>2.7119140599999998</v>
+      </c>
+      <c r="AC16">
+        <v>2.9140625</v>
+      </c>
+      <c r="AD16">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AE16">
+        <v>0.42675781000000002</v>
+      </c>
+      <c r="AF16">
+        <v>7.2265620000000003E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1480,8 +2288,68 @@
         <f t="shared" si="0"/>
         <v>0.61944369696966672</v>
       </c>
+      <c r="R19">
+        <f t="shared" ref="R19:AF19" si="1">AVERAGE(R2:R16)</f>
+        <v>1.6091796880000002</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>1.8775390620000003</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>2.1616536466666663</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>2.3212890626666667</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>2.0465494799999999</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>1.5791666666666668</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>1.9667317713333334</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>2.3405598953333335</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>2.8953776046666664</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>2.528450522</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>1.7900390613333335</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>2.0799479173333331</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="1"/>
+        <v>8.2421874666666672E-2</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>0.99934895800000001</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="1"/>
+        <v>0.105273436</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1490,63 +2358,123 @@
         <v>0.39115413327046827</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:Q20" si="1">STDEV(D2:D16)</f>
+        <f t="shared" ref="D20:Q20" si="2">STDEV(D2:D16)</f>
         <v>5.0616168196776518E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3415311401239422E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10843954876805569</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2679262354630787E-3</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4586928786134491E-3</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14236979010556847</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8621253320981494E-3</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0495101809560571E-3</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74520133176560766</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3532228673721059E-3</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7471778658131802E-3</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71348938151919472</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2164613697899889E-3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8829681524074587E-3</v>
       </c>
+      <c r="R20">
+        <f t="shared" ref="R20:AF20" si="3">STDEV(R2:R16)</f>
+        <v>1.0098386283914533</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.2681304954980637</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>1.1045102501713955</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1.1216017848765392</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>1.3377198763779792</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>1.1415934173054569</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>1.1364434419834413</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>1.3507688834297777</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>0.96609970390667066</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="3"/>
+        <v>1.2951385844577477</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="3"/>
+        <v>0.99527550943821563</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>0.77288304021360188</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="3"/>
+        <v>5.2855401015448854E-2</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="3"/>
+        <v>0.50985737533144848</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="3"/>
+        <v>4.7128916638112507E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1555,63 +2483,123 @@
         <v>-2.9568374400000002</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:Q21" si="2">MAX(D2:D16)</f>
+        <f t="shared" ref="D21:Q21" si="4">MAX(D2:D16)</f>
         <v>-0.61692598238100005</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.67798629032299995</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.06241169</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.89141388956000001</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77841000000000005</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.6567512899999999</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.46173034482399999</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52396724137899997</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.0198484300000001</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.50164570056199997</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57663928571400003</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.3383318800000001</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57258511706799997</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62353727272699999</v>
       </c>
+      <c r="R21">
+        <f t="shared" ref="R21:AF21" si="5">MAX(R2:R16)</f>
+        <v>3.3515625</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>3.91796875</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>3.4990234400000002</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>3.9755859400000002</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>3.9580078099999998</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="5"/>
+        <v>3.4677734400000002</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>3.6748046900000002</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>3.99609375</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>3.98242188</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="5"/>
+        <v>3.89648438</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>3.6181640599999998</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="5"/>
+        <v>3.1171875</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>0.1796875</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="5"/>
+        <v>2.1171875</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>0.18847655999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1620,60 +2608,223 @@
         <v>-4.5100689899999997</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:Q22" si="3">MIN(D2:D16)</f>
+        <f t="shared" ref="D22:Q22" si="6">MIN(D2:D16)</f>
         <v>-0.63227330235099999</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.67423790322599997</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.5163039</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.90191660060099998</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.76863999999999999</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.0994562000000001</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.474798689409</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.51499827586199998</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.2155019300000003</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.52000411953799996</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.56677142857100005</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.2090139299999993</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.55793829868599998</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.61492000000000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:AF22" si="7">MIN(R2:R16)</f>
+        <v>0.296875</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>0.10644531</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>0.51367187999999997</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>8.8867189999999999E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="7"/>
+        <v>0.10449219</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="7"/>
+        <v>0.58984375</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="7"/>
+        <v>0.21386719000000001</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>0.98730468999999998</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>7.2265620000000003E-2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>0.20507812</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="7"/>
+        <v>0.5546875</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="7"/>
+        <v>0.23730469000000001</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="7"/>
+        <v>1.7578119999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>-2.9568374400000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>-0.62383633514699999</v>
+      </c>
+      <c r="E25">
+        <v>0.67769677419399998</v>
+      </c>
+      <c r="F25">
+        <v>-1.0808265399999999</v>
+      </c>
+      <c r="G25">
+        <v>-0.89240431409700005</v>
+      </c>
+      <c r="H25">
+        <v>0.77695499999999995</v>
+      </c>
+      <c r="I25">
+        <v>-2.7452222900000001</v>
+      </c>
+      <c r="J25">
+        <v>-0.47307304739900002</v>
+      </c>
+      <c r="K25">
+        <v>0.52314655172400004</v>
+      </c>
+      <c r="L25">
+        <v>-2.5569229899999999</v>
+      </c>
+      <c r="M25">
+        <v>-0.50809271556400004</v>
+      </c>
+      <c r="N25">
+        <v>0.56677142857100005</v>
+      </c>
+      <c r="O25">
+        <v>-5.4443779299999999</v>
+      </c>
+      <c r="P25">
+        <v>0.566195331957</v>
+      </c>
+      <c r="Q25">
+        <v>0.61708545454499997</v>
+      </c>
+      <c r="R25">
+        <v>1.21484375</v>
+      </c>
+      <c r="S25">
+        <v>1.4375</v>
+      </c>
+      <c r="T25">
+        <v>3.4990234400000002</v>
+      </c>
+      <c r="U25">
+        <v>1.42675781</v>
+      </c>
+      <c r="V25">
+        <v>3.19726562</v>
+      </c>
+      <c r="W25">
+        <v>2.078125</v>
+      </c>
+      <c r="X25">
+        <v>1.44628906</v>
+      </c>
+      <c r="Y25">
+        <v>0.21386719000000001</v>
+      </c>
+      <c r="Z25">
+        <v>3.7412109400000002</v>
+      </c>
+      <c r="AA25">
+        <v>3.2373046900000002</v>
+      </c>
+      <c r="AB25">
+        <v>1.73242188</v>
+      </c>
+      <c r="AC25">
+        <v>1.94824219</v>
+      </c>
+      <c r="AD25">
+        <v>4.5898439999999999E-2</v>
+      </c>
+      <c r="AE25">
+        <v>0.94824218999999998</v>
+      </c>
+      <c r="AF25">
+        <v>0.15722655999999999</v>
       </c>
     </row>
   </sheetData>
